--- a/Data/Template/ReportTemplate.xlsx
+++ b/Data/Template/ReportTemplate.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oxy2c\Documents\UiPath\YandexMarketBot\Data\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B77D5D-1492-44ED-8C43-A061C670B2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7684F9-5C07-43B2-821E-B14C99F1F683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="3345" windowWidth="15630" windowHeight="7650" xr2:uid="{0D6BCF1D-E912-4BEB-9CDE-D6B7DF459E5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D6BCF1D-E912-4BEB-9CDE-D6B7DF459E5B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Отчёт" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Название</t>
   </si>
@@ -58,93 +58,13 @@
   </si>
   <si>
     <t>Распределение отзывов</t>
-  </si>
-  <si>
-    <t>Ноутбук ASUS E1504FA-BQ089 15.6" FHD IPS 250N/R5-7520U/8GB/512GB SSD/UMA/DOS/Green Grey Русская раскладка</t>
-  </si>
-  <si>
-    <t>https://market.yandex.ru//product--noutbuk-asus-e1504fa-bq089-15-6-fhd-ips-250n-r5-7520u-8gb-512gb-ssd-uma-dos-green-grey-russkaia-raskladka/1915125665?hid=90401&amp;show-uid=17265320032964320239416064&amp;nid=26895412&amp;from=search&amp;cpa=1&amp;do-waremd5=PMwvndWsEuRT62IN15U4ew&amp;cpc=a73X29otkgwMoLJpKQBEAr4K3dTnw_RYi1b_TRVjjqB36bV2pnZpNzR43jB6zVNkDR_bwqlwnuZ_YX0s5yssi8yiynoorwpUBQ1Zm5R0RF9K1SKqbrAhcC4UtUfr7GH4eH_0tcVZPxg90hz3Ph3zJAJ8sAimHNDF0JOI-aeA1UR9mLgJk_GHSz76mAvSkUvj0RLcifW7mCvSO_qpN3fyUt8HuRi-6oC2hOp2TJsUYOSPiuHK07ImsMMv3d-E-8v67koLOxMoLU0SlYM8odIqgBGhnXhGBrGa&amp;cc=CjIxNzI2NTMyMDAzMTc4L2I4ZTdiMGQyMDNmMTY4NmVhZTI2YmU4ZTQ1MjIwNjAwLzEvMRAcgH3m7QY%2C&amp;uniqueId=16870397</t>
-  </si>
-  <si>
-    <t>Бренд: ASUS: Тип: ноутбук: Операционная система: без ОС: Процессор: Ryzen 5 7520U: Линейка процессора: AMD Ryzen 5: Частота процессора: 2800: Количество ядер процессора: 4: Оперативная память: 8 ГБ: Тип памяти: LPDDR5: Диагональ экрана: 15.6 ": Разрешение экрана: 1920x1080: Частота обновления экрана: 60 Гц: Тип покрытия экрана: матовый: Тип матрицы экрана: IPS: Беспроводные интерфейсы: Bluetooth, Wi-Fi: Стандарт Wi-Fi 802.11: 802.11ac: Версия Bluetooth: 5.1: Интерфейсы: USB 2.0 Type A, USB 3.2 Gen1 Type A, USB 3.2 Gen1 Type-С, вход аудио, выход HDMI: Видеокарта: AMD Radeon Graphics: Тип видеокарты: встроенная: Объем видеопамяти: SMA (использует системную): Тип видеопамяти: выделяется из оперативной: Общий объем накопителей SSD: 512 ГБ: Общий объем накопителей HDD: отсутствует: Оптический привод: нет: Поддержка карт памяти: нет: Количество слотов памяти: 1: Время автономной работы: 9 ч: Емкость аккумулятора (Вт·ч): 42 Вт·ч: Подсветка клавиатуры: есть: Раскладка клавиатуры: английская/русская: Устройства позиционирования: Touchpad: Разрешение веб-камеры: 720p: Вес: 1.63 кг: Дополнительная информация: Время автономной работы, 8 ч: : Срок службы: 2 г.: Гарантийный срок: 1 г.</t>
-  </si>
-  <si>
-    <t>C:\Users\oxy2c\Documents\UiPath\YandexMarketBot\Data\Temp\17092024-031345.webp</t>
-  </si>
-  <si>
-    <t>2 ⭐️⭐️⭐️⭐️⭐️</t>
-  </si>
-  <si>
-    <t>Ноутбук Lenovo Ideapad 1 15.6" HD/AMD Athlon Silver-7120U 2.4ГГц/8Гб RAM DDR4/256Гб SSD/AMD Radeon Graphics 610M/Win 11 Pro/Русская клавиатура</t>
-  </si>
-  <si>
-    <t>https://market.yandex.ru//product--noutbuk-lenovo-ideapad-1-15-6-hd-amd-athlon-silver-7120u-2-4ggts-8gb-ram-ddr4-256gb-ssd-amd-radeon-graphics-610m-win-11-pro-russkaia-klaviatura/29578515?hid=90401&amp;show-uid=17265320032964320239416068&amp;nid=26895412&amp;from=search&amp;cpa=1&amp;do-waremd5=4OHbgXMcvzzzJj8wM7w8mQ&amp;cpc=a73X29otkgxn1NLh6QSOnyRHekTOVz8rib9WAfQKgVsxDUHRwQlVPV1socd_kfYPYecYnWiInlJnK7myCKVxjLXJq8kT4_Mu8r0ZNmn7NcaB0jq2vP-OMAASS2EftLgfG-atgV45bOkBUp6oJRURjxGBuXZ-XirQCMhzfygx8aSgYeIPefcU4KVlqlm5aZkxZSxNyfNgvp-m9_eI-IkeOg5Bhbtc8H6yxltm7qWD94KF4RPr5gj39ZbP4rWiF_5ksfqC4EjrYNGWHO5pLhjSl9UVF2GsOt4b&amp;cc=CjIxNzI2NTMyMDAzMTc4L2I4ZTdiMGQyMDNmMTY4NmVhZTI2YmU4ZTQ1MjIwNjAwLzEvMRAcgH3m7QY%2C&amp;uniqueId=40580449</t>
-  </si>
-  <si>
-    <t>Бренд: Lenovo: Линейка: Ideapad: Тип: ноутбук: Операционная система: Windows 11 Pro: Процессор: AMD Athlon Silver 7120U: Линейка процессора: AMD Athlon Silver: Частота процессора: 2400: Количество ядер процессора: 2: Оперативная память: 8 ГБ: Тип памяти: DDR4: Частота памяти: 2400 МГц: Диагональ экрана: 15.6 ": Разрешение экрана: 1280x720: Частота обновления экрана: 60 Гц: Тип покрытия экрана: антибликовый: Тип матрицы экрана: TN: Беспроводные интерфейсы: Bluetooth, Wi-Fi: Стандарт Wi-Fi 802.11: 802.11ax: Версия Bluetooth: 5.0: Интерфейсы: USB 2.0 Type A x 2, USB 3.0 Type-С, выход HDMI, интерфейс док-станции, микрофон/наушники Combo: Видеокарта: AMD Radeon 610M: Тип видеокарты: встроенная: Объем видеопамяти: SMA: Тип видеопамяти: SMA: Общий объем накопителей SSD: 256 ГБ: Общий объем накопителей HDD: отсутствует: Оптический привод: нет: Поддержка карт памяти: SD: Время автономной работы: 8 ч: Емкость аккумулятора (Вт·ч): 42 Вт·ч: Раскладка клавиатуры: английская/русская: Устройства позиционирования: Touchpad: Разрешение веб-камеры: 720p: Размеры (ДхШхГ): 240x360x20 мм: Вес: 1.6 кг: : Гарантийный срок: 1 г.</t>
-  </si>
-  <si>
-    <t>C:\Users\oxy2c\Documents\UiPath\YandexMarketBot\Data\Temp\17092024-031352.webp</t>
-  </si>
-  <si>
-    <t>50 ⭐️⭐️⭐️⭐️⭐️
-5 ⭐️⭐️⭐️⭐️
-1 ⭐️⭐️⭐️
-1 ⭐️⭐️</t>
-  </si>
-  <si>
-    <t>Ноутбук Maibenben M545/15.6"/AMD Ryzen 5 4500U/16/512/Linux/Silver (M5451SF0LSRE0)</t>
-  </si>
-  <si>
-    <t>https://market.yandex.ru//product--15-6-noutbuk-maibenben-m545-fhd-ips-60hz-45-ntsc-amd-r5-4500u-ram-8-gb-ssd-256-gb-amd-radeon-graphics/1815965691?hid=90401&amp;show-uid=17265320032964320239416071&amp;nid=26895412&amp;from=search&amp;cpa=1&amp;do-waremd5=qzNNXe6yJWhqZV2JYYALvw&amp;cpc=a73X29otkgxm9CzKrH_M422H1QNEP_21nkzM9NAME-8ajwIOy5Bx9IECWrSyyJmXiMXxEtqjUUmLaTm4p2LJobaOSSMaCCygKmMJ-HXMVHixaXKFWWy1k5DAwTaaTSP5xnbM2qt67l5kaXId4oGVVPqT2OZMlvrce-6MK_QnszDDEiY6zuZeSgq5sJ2wnCax67OrWAPgKRnXG6tCiaIvMY9BoAdKb_QzNKfdIEgtu0_DVALBLUUrD0K86tpAtkpuj213SDBY0gDqvy0H4eQe6n8bXOAM3zkc&amp;cc=CjIxNzI2NTMyMDAzMTc4L2I4ZTdiMGQyMDNmMTY4NmVhZTI2YmU4ZTQ1MjIwNjAwLzEvMRAcgH3m7QY%2C&amp;uniqueId=24332139</t>
-  </si>
-  <si>
-    <t>Бренд: MAIBENBEN: Линейка: M серия: Тип: ноутбук: Операционная система: Linux: Процессор: AMD Ryzen 5 4500U: Линейка процессора: AMD Ryzen 5: Частота процессора: 2300: Количество ядер процессора: 6: Ядро процессора: Renoir: Оперативная память: 16 ГБ: Тип памяти: DDR4: Частота памяти: 3200 МГц: Диагональ экрана: 15.6 ": Разрешение экрана: 1920x1080: Частота обновления экрана: 60 Гц: Тип покрытия экрана: матовый: Тип матрицы экрана: IPS: Беспроводные интерфейсы: Bluetooth, Wi-Fi: Стандарт Wi-Fi 802.11: 802.11ac: Версия Bluetooth: 4.2: Интерфейсы: Ethernet - RJ-45, USB 3.0 Type A x 2, USB 3.1 Type-С, выход HDMI, микрофон/наушники Combo: Видеокарта: AMD Radeon Graphics: Тип видеокарты: встроенная: Объем видеопамяти: SMA: Тип видеопамяти: SMA: Общий объем накопителей SSD: 512 ГБ: Общий объем накопителей HDD: отсутствует: Оптический привод: нет: Поддержка карт памяти: microSD: Количество слотов памяти: 2: Время автономной работы: 7 ч: Емкость аккумулятора: 4440 мА·ч: Емкость аккумулятора (Вт·ч): 51.3 Вт·ч: Раскладка клавиатуры: английская/русская: Устройства позиционирования: Touchpad: Разрешение веб-камеры: 720p: Размеры (ДхШхГ): 24.7x36.2x19.9 мм: Вес: 1.65 кг: Дополнительная информация: Аккумулятор большой емкости 51 Втч, Двухдиапазаонный Wi-Fi, Тонкие рамки с 2-х сторон (8.3 мм), "Полноразмерная клавиатура", Возможность расширения SSD/HDD/RAM, Поддержка Wi-Fi a/b/g/n/ac, Максимальная тактовая частота 4, Кэш-память 8, Поддержка Gigabit LAN, Максимальная оперативная память 32, Разъем карт памяти Micro SD/ Micro SDHC/ Micro SDXC: : Срок службы: 1 г., Гарантия производителя: Гарантийный срок: 12 мес.</t>
-  </si>
-  <si>
-    <t>C:\Users\oxy2c\Documents\UiPath\YandexMarketBot\Data\Temp\17092024-031402.webp</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Ноутбук F+ FLAPTOP R-Series/15.6"/AMD Ryzen 5 5600H/8/512/Win/Silver (FLTP-5R5-8512-W)</t>
-  </si>
-  <si>
-    <t>https://market.yandex.ru//product--noutbuk-f-flaptop-r-fltp-5r5-8512-w/1812913044?hid=90401&amp;show-uid=17265320032964320239416072&amp;nid=26895412&amp;from=search&amp;cpa=1&amp;do-waremd5=TdYA-J6ZLLA5jFsWpr6nUQ&amp;cpc=a73X29otkgzb8CQVG47-GxPpEv2OLDgb2jpZ-M1TJhH6iOuTwdeAZEe1WMTsS7456clpq1GNE2wqhkyUjjDw-imrW6sO8MpIzrONubgeAM9rvfP7-Au99q3ISjNRYlKcn4BAT0bO1-BeHe_qNAkb1sJxRFYMnJ5STjk5z1tOLpBBEqMwDFkShQIckPAp2Cq5x9-hn8GsxRxb_SbwploaL1pEVa6HddgpxThnHlUkdR917vFSm3ATe9R652HTQ2QgSmfO4axbOoCBE4nSVq-5xLuwaBv-EaTU&amp;cc=CjIxNzI2NTMyMDAzMTc4L2I4ZTdiMGQyMDNmMTY4NmVhZTI2YmU4ZTQ1MjIwNjAwLzEvMRAcgH3m7QY%2C&amp;uniqueId=4852853</t>
-  </si>
-  <si>
-    <t>Бренд: F+: Линейка: Flaptop R: Тип: ноутбук: Операционная система: Windows 11 Home: Процессор: AMD Ryzen 5 5600U: Линейка процессора: AMD Ryzen 5: Частота процессора: 2300: Количество ядер процессора: 6: Оперативная память: 8 ГБ: Тип памяти: DDR4: Частота памяти: 2400 МГц: Диагональ экрана: 15.6 ": Разрешение экрана: 1920x1080: Частота обновления экрана: 60 Гц: Тип покрытия экрана: матовый: Тип матрицы экрана: IPS: Беспроводные интерфейсы: Bluetooth, Wi-Fi: Стандарт Wi-Fi 802.11: 802.11ac: Версия Bluetooth: 4.2: Интерфейсы: USB 2.0 Type A, USB 3.2 Gen1 Type A, USB 3.2 Gen1 Type-С x 2, микрофон/наушники Combo: Функционал USB Type-C: DisplayPort 2.0, Power Delivery: Видеокарта: AMD Radeon Graphics: Тип видеокарты: встроенная: Объем видеопамяти: SMA: Общий объем накопителей SSD: 512 ГБ: Оптический привод: нет: Поддержка карт памяти: нет: Количество слотов памяти: 2: Время автономной работы: 7 ч: Емкость аккумулятора: 4800 мА·ч: Подсветка клавиатуры: есть: Раскладка клавиатуры: английская/русская: Разрешение веб-камеры: 720p: Размеры (ДхШхГ): 19.5x359.5x240 мм: Вес: 1.78 кг: Дополнительная информация: Большой 15,6-дюймовый IPS-экран, 3 года, Корпус из алюминиевого сплава, Клавиатура с подсветкой, Кэш-память 16, Поддержка Gigabit LAN: : Срок службы: 36 мес.: Гарантийный срок: 12 мес.</t>
-  </si>
-  <si>
-    <t>C:\Users\oxy2c\Documents\UiPath\YandexMarketBot\Data\Temp\17092024-031438.webp</t>
-  </si>
-  <si>
-    <t>1 ⭐️</t>
-  </si>
-  <si>
-    <t>Ноутбук Asus VivoBook E1504FA-BQ719 Ryzen 5 7520U/8Gb/SSD512Gb/15.6"/IPS/FHD/noOS/black</t>
-  </si>
-  <si>
-    <t>https://market.yandex.ru//product--noutbuk-asus-vivobook-go-e1504fa-bq664-ryzen-5-7520u-16gb-ssd512gb-amd-radeon-15-6-ips-fhd-1920x1080-noos-black-wifi-bt-cam-90nb0zr2-m012z0/1928441650?hid=90401&amp;show-uid=17265320032964320239416073&amp;nid=26895412&amp;from=search&amp;cpa=1&amp;do-waremd5=iQBH2HTtj-yFvBJDIMVWpw&amp;cpc=a73X29otkgwgVHFP6umQ_cuR0ERs52zhm_7nd6-TQISxvXtb-Pbtq9-G8xMgkPpy7POU97FxhJTe07vy_6h9Tb5yZ1KvfYHUO123r73BgJdJm5beaqCDcDh0W91QTYCgRrp9sgFsaCn3JSy3jJKjXacXqHYybU-N_zEhb9mVxc7101do1BXNbWdL14BwnSDGMXvIEXUXCzFnB7SWJRFs4G55c9d_2W-dQ0KtpghefdCjiGRfVmR_iPHlm0o1l_QfypeExDpQGkn05aPvXSqUolLBeXYsYcAi&amp;cc=CjIxNzI2NTMyMDAzMTc4L2I4ZTdiMGQyMDNmMTY4NmVhZTI2YmU4ZTQ1MjIwNjAwLzEvMRAcgH3m7QY%2C&amp;uniqueId=1233177</t>
-  </si>
-  <si>
-    <t>Бренд: ASUS: Линейка: ASUS Vivobook: Тип: ноутбук: Операционная система: без ОС: Процессор: Ryzen 5 7520U: Линейка процессора: AMD Ryzen 5: Частота процессора: 2800: Количество ядер процессора: 4: Ядро процессора: Mendocino: Оперативная память: 8 ГБ: Тип памяти: LPDDR5: Частота памяти: 5500 МГц: Диагональ экрана: 15.6 ": Разрешение экрана: 1920x1080: Частота обновления экрана: 60: Тип покрытия экрана: матовый: Тип матрицы экрана: IPS: Беспроводные интерфейсы: Bluetooth, Wi-Fi: Стандарт Wi-Fi 802.11: 802.11ac: Версия Bluetooth: 5.1: Интерфейсы: USB 2.0 Type A, USB 3.0 Type A, выход HDMI, 3.5 мм, USB Type-C: Функционал USB Type-C: Power Delivery: Видеокарта: AMD Radeon: Тип видеокарты: встроенная: Объем видеопамяти: SMA: Тип видеопамяти: SMA: Общий объем накопителей SSD: 512: Общий объем накопителей HDD: отсутствует: Оптический привод: нет: Поддержка карт памяти: нет: Количество слотов памяти: 1: Время автономной работы: 7 ч: Емкость аккумулятора (Вт·ч): 42 Вт·ч: Подсветка клавиатуры: есть: Раскладка клавиатуры: Русская раскладка: Устройства позиционирования: Touchpad: Разрешение веб-камеры: 720p: Сканер отпечатков пальцев: есть: Размеры (ДхШхГ): 232.5x360.3x17.9 мм: Вес: 1.63 кг: : Срок службы: 5 лет: Гарантийный срок: 12 мес.: Бренд графического процессора: AMD: Бренд процессора: AMD: Встроенные устройства: Web-камера, Микрофон: Кол-во элементов аккумулятора: 3: Количество SSD: 1: Конфигурация: Ноутбук Asus VivoBook E1504FA-BQ719, 15.6", IPS, AMD Ryzen 5 7520U, LPDDR5 8ГБ, SSD 512ГБ, AMD Radeon, черный (90nb0zr2-m01640): Конфигурация звука: Mono: Материал корпуса: Пластик: Модуль сотовой связи: Нет: Основной материал корпуса: Пластик: Особенности устройств ручного ввода: Подсветка: Поддержка VR: Нет: Покрытие корпуса: Матовое: Серия графического процессора: AMD Radeon: Суммарный объем всех дисков, ГБ: 512: Тип аккумулятора: Li-ion: Тип накопителя: SSD: Устройства ручного ввода: Touchpad, Клавиатура: Форм-фактор SSD: M.2: Цвет клавиатуры: черный: Чипсет: AMD: Число портов HDMI: 1: Число портов USB 2.0: 1: Число портов USB Type-A 3.2 Gen 1: 1: Число портов USB Type-C: 1: Шторка для веб-камеры: Есть</t>
-  </si>
-  <si>
-    <t>C:\Users\oxy2c\Documents\UiPath\YandexMarketBot\Data\Temp\17092024-031445.webp</t>
-  </si>
-  <si>
-    <t>23 ⭐️⭐️⭐️⭐️⭐️
-1 ⭐️⭐️⭐️⭐️
-2 ⭐️</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +85,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -205,13 +117,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -528,10 +437,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4099BDF2-15F7-4918-8D39-2BC49FC269BA}">
-  <dimension ref="A1:H6"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,9 +451,9 @@
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="52.140625" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
     <col min="8" max="8" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -572,136 +483,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
-        <v>39038</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>39673</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E3" s="2">
-        <v>239</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2">
-        <v>39999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E4" s="2">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="405" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2">
-        <v>39999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E5" s="2">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2">
-        <v>40099</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="E6" s="2">
-        <v>69</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
